--- a/iamend_ci/muestras.xlsx
+++ b/iamend_ci/muestras.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>347_M01</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>P071</t>
+  </si>
+  <si>
+    <t>1010_M0</t>
   </si>
 </sst>
 </file>
@@ -487,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +904,7 @@
         <v>58910000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -912,7 +915,7 @@
         <v>34430000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -921,6 +924,18 @@
       </c>
       <c r="C34">
         <v>17470000</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>6.5</v>
+      </c>
+      <c r="C35">
+        <v>3830000</v>
       </c>
     </row>
   </sheetData>
